--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,56 +665,63 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -725,25 +732,31 @@
         <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>300</v>
+      </c>
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -754,16 +767,16 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,14 +804,14 @@
       <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
+        <v>400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -830,20 +857,26 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -900,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,8 +990,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -948,28 +1001,34 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,28 +1036,34 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1022,25 +1089,31 @@
         <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1054,30 +1127,36 @@
         <v>0</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1089,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1097,8 +1176,14 @@
       <c r="K22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1112,22 +1197,28 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1155,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,8 +1281,14 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1199,22 +1302,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,22 +1337,28 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1370,25 +1509,31 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1402,22 +1547,28 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,8 +1596,14 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1460,56 +1617,68 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,28 +1771,34 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,16 +1841,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -1668,19 +1865,25 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1697,19 +1900,25 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1737,8 +1946,14 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1746,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1874,16 +2113,22 @@
         <v>1000</v>
       </c>
       <c r="I52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,8 +2156,14 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1929,19 +2180,25 @@
         <v>1100</v>
       </c>
       <c r="H54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J54" s="3">
         <v>1200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,22 +2256,28 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2019,13 +2286,19 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>6900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2045,16 +2318,22 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2074,16 +2353,22 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2103,24 +2388,30 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>6900</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,16 +2536,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2248,16 +2563,22 @@
         <v>0</v>
       </c>
       <c r="I66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,13 +2726,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E72" s="3">
         <v>-5900</v>
@@ -2403,19 +2750,25 @@
         <v>-5900</v>
       </c>
       <c r="H72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,8 +2866,14 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2519,19 +2890,25 @@
         <v>1100</v>
       </c>
       <c r="H76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J76" s="3">
         <v>1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,42 +2936,54 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2608,22 +2997,28 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2664,8 +3061,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,8 +3290,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2880,8 +3321,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,8 +3391,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2965,10 +3424,16 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,8 +3581,14 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3125,8 +3616,14 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3154,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,67 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,25 +733,25 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>300</v>
       </c>
       <c r="H8" s="3">
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>300</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -755,8 +759,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -778,8 +785,8 @@
       <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,11 +821,11 @@
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -863,20 +877,23 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +927,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +965,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,48 +1018,52 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -1042,28 +1072,31 @@
         <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1110,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,25 +1120,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1112,13 +1146,16 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -1133,22 +1170,25 @@
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,8 +1198,8 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1174,21 +1214,24 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1203,22 +1246,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1298,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,13 +1336,16 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1308,27 +1360,30 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1343,22 +1398,25 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1564,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1532,13 +1602,16 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -1553,22 +1626,25 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,13 +1678,16 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -1623,62 +1702,68 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1793,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -1734,16 +1821,19 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,13 +1867,16 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -1791,17 +1884,17 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,19 +1943,22 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1871,24 +1970,27 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -1906,19 +2008,22 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1961,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2209,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2119,16 +2239,19 @@
         <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L52" s="3">
         <v>1300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,13 +2285,16 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E54" s="3">
         <v>1100</v>
@@ -2186,19 +2312,22 @@
         <v>1100</v>
       </c>
       <c r="J54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,43 +2393,49 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2324,21 +2461,24 @@
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -2359,21 +2499,24 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2394,16 +2537,19 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>6900</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2413,8 +2559,8 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,19 +2697,22 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -2569,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="L66" s="3">
         <v>6900</v>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,16 +2903,19 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-5900</v>
       </c>
       <c r="F72" s="3">
         <v>-5900</v>
@@ -2756,19 +2930,22 @@
         <v>-5900</v>
       </c>
       <c r="J72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,8 +3055,11 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2896,19 +3082,22 @@
         <v>1100</v>
       </c>
       <c r="J76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,53 +3131,59 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -3003,22 +3198,25 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3067,8 +3266,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,8 +3456,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3254,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -3266,19 +3483,22 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,8 +3512,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3327,8 +3548,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,8 +3624,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3430,10 +3660,13 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,8 +3830,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3622,8 +3868,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,22 +3906,25 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -3681,15 +3933,18 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>300</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -745,25 +752,31 @@
         <v>300</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
+        <v>300</v>
+      </c>
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -783,16 +796,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -800,16 +813,22 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -824,22 +843,28 @@
         <v>200</v>
       </c>
       <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,20 +907,26 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,8 +1007,14 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1051,14 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1176,10 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1123,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1132,36 +1199,42 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
@@ -1173,39 +1246,45 @@
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1217,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1225,19 +1304,25 @@
       <c r="N22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
@@ -1249,22 +1334,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1301,8 +1392,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,19 +1436,25 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1363,33 +1466,39 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1401,22 +1510,28 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1700,14 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1579,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1588,36 +1727,42 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1629,22 +1774,28 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,19 +1832,25 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -1705,65 +1862,77 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1965,54 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,37 +2049,43 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1957,14 +2154,14 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1973,31 +2170,37 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
@@ -2011,19 +2214,25 @@
         <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,8 +2269,14 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2072,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -2098,8 +2313,14 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2136,8 +2357,14 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,8 +2445,14 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2242,16 +2481,22 @@
         <v>1000</v>
       </c>
       <c r="L52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N52" s="3">
         <v>1300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,19 +2533,25 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1300</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1100</v>
       </c>
       <c r="G54" s="3">
         <v>1100</v>
@@ -2315,19 +2566,25 @@
         <v>1100</v>
       </c>
       <c r="K54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M54" s="3">
         <v>1200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,19 +2657,25 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -2422,20 +2689,26 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>6900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2464,16 +2737,22 @@
         <v>0</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2481,10 +2760,10 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2502,16 +2781,22 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,10 +2804,10 @@
         <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2540,16 +2825,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>6900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2562,11 +2853,11 @@
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,8 +3009,14 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2709,16 +3024,16 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -2730,16 +3045,22 @@
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="P66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,13 +3247,19 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="E72" s="3">
         <v>-6000</v>
@@ -2921,7 +3268,7 @@
         <v>-5900</v>
       </c>
       <c r="G72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H72" s="3">
         <v>-5900</v>
@@ -2933,19 +3280,25 @@
         <v>-5900</v>
       </c>
       <c r="K72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,16 +3423,22 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>1100</v>
@@ -3085,19 +3456,25 @@
         <v>1100</v>
       </c>
       <c r="K76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M76" s="3">
         <v>1200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,62 +3511,74 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
         <v>0</v>
@@ -3201,22 +3590,28 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,13 +3886,19 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -3474,31 +3907,37 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3952,10 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3551,8 +3992,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +4080,14 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3663,10 +4122,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +4186,14 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,31 +4318,37 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -3871,8 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,113 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>300</v>
       </c>
       <c r="L8" s="3">
+        <v>300</v>
+      </c>
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -775,8 +779,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -793,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -807,8 +814,8 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -819,19 +826,22 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>200</v>
@@ -849,11 +859,11 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,20 +927,23 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1033,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1098,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,54 +1111,57 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -1140,28 +1170,31 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-2600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1211,14 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1196,25 +1230,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1222,22 +1256,25 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -1252,22 +1289,25 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1277,8 +1317,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1286,8 +1326,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1302,30 +1342,33 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1340,22 +1383,25 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,22 +1491,25 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
@@ -1472,36 +1524,39 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
@@ -1516,22 +1571,25 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1773,16 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1724,25 +1794,25 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -1750,22 +1820,25 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -1780,22 +1853,25 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,22 +1914,25 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
@@ -1868,71 +1947,77 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2053,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,25 +2063,25 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2003,16 +2090,19 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2145,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2066,11 +2159,11 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -2078,17 +2171,17 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2160,11 +2259,11 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2176,34 +2275,37 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
         <v>100</v>
       </c>
@@ -2220,19 +2322,22 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,13 +2380,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2293,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2487,16 +2607,19 @@
         <v>1000</v>
       </c>
       <c r="N52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,22 +2662,25 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="E54" s="3">
         <v>1200</v>
       </c>
       <c r="F54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G54" s="3">
         <v>1300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1100</v>
       </c>
       <c r="H54" s="3">
         <v>1100</v>
@@ -2572,19 +2698,22 @@
         <v>1100</v>
       </c>
       <c r="M54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N54" s="3">
         <v>1200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,10 +2809,10 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
@@ -2695,20 +2829,23 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2743,16 +2880,19 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2766,7 +2906,7 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -2787,16 +2927,19 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2810,7 +2953,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2831,16 +2974,19 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>6900</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2859,8 +3005,8 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3170,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3030,13 +3188,13 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -3051,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>6900</v>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3424,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3265,13 +3439,13 @@
         <v>-6000</v>
       </c>
       <c r="F72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="G72" s="3">
         <v>-5900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-5900</v>
       </c>
       <c r="I72" s="3">
         <v>-5900</v>
@@ -3286,19 +3460,22 @@
         <v>-5900</v>
       </c>
       <c r="M72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,19 +3612,22 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
         <v>1000</v>
       </c>
       <c r="F76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G76" s="3">
         <v>1100</v>
@@ -3462,19 +3648,22 @@
         <v>1100</v>
       </c>
       <c r="M76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,71 +3706,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
@@ -3596,22 +3791,25 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,17 +4106,20 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -3913,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3925,19 +4142,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4219,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4128,10 +4358,13 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,19 +4567,22 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -4350,8 +4596,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4368,8 +4614,11 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,31 +4661,34 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4445,15 +4697,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,120 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
       </c>
       <c r="L8" s="3">
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -803,13 +810,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -817,8 +824,8 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -829,22 +836,25 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
         <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
@@ -862,11 +872,11 @@
         <v>200</v>
       </c>
       <c r="M10" s="3">
+        <v>200</v>
+      </c>
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,20 +944,23 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1006,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,13 +1125,14 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>200</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1114,57 +1141,60 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -1173,28 +1203,31 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,17 +1245,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1233,25 +1267,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1259,25 +1293,28 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -1292,22 +1329,25 @@
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1360,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1329,8 +1369,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1345,16 +1385,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1386,22 +1429,25 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,25 +1543,28 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1527,39 +1579,42 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1574,22 +1629,25 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,16 +1843,19 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1797,25 +1867,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1823,25 +1893,28 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -1856,22 +1929,25 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,25 +1993,28 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -1950,74 +2029,80 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,25 +2153,25 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2093,16 +2180,19 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2162,11 +2255,11 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2174,17 +2267,17 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,11 +2361,11 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2278,37 +2377,40 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
@@ -2325,19 +2427,22 @@
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2392,7 +2500,7 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2404,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2610,16 +2730,19 @@
         <v>1000</v>
       </c>
       <c r="O52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2674,16 +2800,16 @@
         <v>2200</v>
       </c>
       <c r="E54" s="3">
-        <v>1200</v>
+        <v>2200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
       </c>
       <c r="G54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H54" s="3">
         <v>1300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1100</v>
       </c>
       <c r="I54" s="3">
         <v>1100</v>
@@ -2701,19 +2827,22 @@
         <v>1100</v>
       </c>
       <c r="N54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O54" s="3">
         <v>1200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,13 +2928,16 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -2812,10 +2946,10 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -2832,20 +2966,23 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2883,21 +3020,24 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -2909,7 +3049,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -2930,16 +3070,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,7 +3099,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2977,16 +3120,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>6900</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3008,8 +3154,8 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,13 +3328,16 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -3191,13 +3349,13 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -3212,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>6900</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3442,13 +3616,13 @@
         <v>-6000</v>
       </c>
       <c r="G72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H72" s="3">
         <v>-5900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-5900</v>
       </c>
       <c r="J72" s="3">
         <v>-5900</v>
@@ -3463,19 +3637,22 @@
         <v>-5900</v>
       </c>
       <c r="N72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3624,13 +3810,13 @@
         <v>2000</v>
       </c>
       <c r="E76" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
       </c>
       <c r="G76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H76" s="3">
         <v>1100</v>
@@ -3651,19 +3837,22 @@
         <v>1100</v>
       </c>
       <c r="N76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,77 +3898,83 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -3794,22 +3989,25 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4118,11 +4335,11 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4133,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4145,19 +4362,22 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4361,10 +4591,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4581,11 +4827,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -4599,8 +4845,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4673,25 +4925,25 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4700,15 +4952,18 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -1131,8 +1131,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
@@ -1181,8 +1181,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
@@ -1251,8 +1251,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
@@ -1301,8 +1301,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>100</v>
@@ -1551,8 +1551,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1601,8 +1601,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1851,8 +1851,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
@@ -1901,8 +1901,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2001,8 +2001,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2797,10 +2797,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="E54" s="3">
-        <v>2200</v>
+        <v>1200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
@@ -3807,10 +3807,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E76" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
@@ -3961,8 +3961,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,22 +755,22 @@
         <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>300</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
@@ -772,25 +779,31 @@
         <v>300</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
@@ -822,16 +835,16 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -839,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,19 +867,19 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
+        <v>200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
       <c r="H10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -875,22 +894,28 @@
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>400</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,20 +974,26 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,19 +1042,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1035,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,23 +1311,25 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1270,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1279,25 +1346,31 @@
         <v>-100</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
+      <c r="O20" s="3">
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,22 +1378,22 @@
         <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
@@ -1332,22 +1405,28 @@
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,20 +1442,20 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1388,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,8 +1475,14 @@
       <c r="R22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,22 +1490,22 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1432,22 +1517,28 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1582,22 +1685,28 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -1632,22 +1741,28 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,22 +1979,28 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1870,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1879,25 +2018,31 @@
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -1932,22 +2077,28 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2032,77 +2189,89 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2156,43 +2329,49 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>100</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,13 +2420,19 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>100</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>4</v>
@@ -2258,32 +2443,32 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2364,14 +2561,14 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2380,19 +2577,25 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>1000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2409,14 +2612,14 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
         <v>100</v>
       </c>
@@ -2430,19 +2633,25 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2515,13 +2730,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2541,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,16 +2924,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>1000</v>
@@ -2733,16 +2972,22 @@
         <v>1000</v>
       </c>
       <c r="P52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,16 +3036,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>1200</v>
@@ -2809,13 +3060,13 @@
         <v>1200</v>
       </c>
       <c r="H54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J54" s="3">
         <v>1300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1100</v>
       </c>
       <c r="K54" s="3">
         <v>1100</v>
@@ -2830,19 +3081,25 @@
         <v>1100</v>
       </c>
       <c r="O54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,22 +3207,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2969,20 +3236,26 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>6900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3023,16 +3296,22 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3040,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -3052,10 +3331,10 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3073,16 +3352,22 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>100</v>
+      </c>
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3102,10 +3387,10 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3123,21 +3408,27 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>6900</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3157,11 +3448,11 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3340,10 +3655,10 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -3352,16 +3667,16 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -3373,16 +3688,22 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,16 +3942,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="E72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="F72" s="3">
         <v>-6000</v>
@@ -3619,7 +3966,7 @@
         <v>-6000</v>
       </c>
       <c r="H72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="I72" s="3">
         <v>-6000</v>
@@ -3628,7 +3975,7 @@
         <v>-5900</v>
       </c>
       <c r="K72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="L72" s="3">
         <v>-5900</v>
@@ -3640,19 +3987,25 @@
         <v>-5900</v>
       </c>
       <c r="O72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,16 +4166,22 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>1000</v>
@@ -3819,10 +4190,10 @@
         <v>1000</v>
       </c>
       <c r="H76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J76" s="3">
         <v>1100</v>
@@ -3840,19 +4211,25 @@
         <v>1100</v>
       </c>
       <c r="O76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,22 +4354,22 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -3992,22 +4381,28 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,26 +4753,32 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -4353,31 +4786,37 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4594,10 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,28 +5301,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
@@ -4848,11 +5339,11 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -4866,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -761,40 +765,40 @@
         <v>200</v>
       </c>
       <c r="G8" s="3">
+        <v>200</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
       <c r="I8" s="3">
         <v>100</v>
       </c>
       <c r="J8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -802,13 +806,16 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -832,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
@@ -846,8 +853,8 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>100</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -858,13 +865,16 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>200</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
@@ -873,16 +883,16 @@
         <v>200</v>
       </c>
       <c r="G10" s="3">
+        <v>200</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>200</v>
@@ -900,11 +910,11 @@
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,20 +994,23 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,22 +1065,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1080,8 +1100,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,22 +1205,23 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1203,66 +1230,69 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>200</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1271,28 +1301,31 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,25 +1346,26 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1343,25 +1377,25 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,34 +1403,37 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>0</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1000</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
         <v>0</v>
@@ -1411,22 +1448,25 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,8 +1488,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1457,8 +1497,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1473,42 +1513,45 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1523,22 +1566,25 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,34 +1698,37 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1000</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1691,48 +1743,51 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -1747,22 +1802,25 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,25 +2052,28 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2015,25 +2085,25 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,34 +2111,37 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2083,22 +2156,25 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,34 +2229,37 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1000</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2195,83 +2274,89 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2400,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,25 +2422,25 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2362,16 +2449,19 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,16 +2516,19 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>100</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2449,11 +2542,11 @@
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2461,17 +2554,17 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2567,11 +2666,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2583,19 +2682,22 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2603,26 +2705,26 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
@@ -2639,19 +2741,22 @@
         <v>100</v>
       </c>
       <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2811,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2736,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3047,22 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>1000</v>
@@ -2978,16 +3098,19 @@
         <v>1000</v>
       </c>
       <c r="R52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S52" s="3">
         <v>1300</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,19 +3165,22 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1200</v>
       </c>
       <c r="G54" s="3">
         <v>1200</v>
@@ -3066,10 +3192,10 @@
         <v>1200</v>
       </c>
       <c r="J54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1300</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1100</v>
       </c>
       <c r="L54" s="3">
         <v>1100</v>
@@ -3087,19 +3213,22 @@
         <v>1100</v>
       </c>
       <c r="Q54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R54" s="3">
         <v>1200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3222,10 +3356,10 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -3242,20 +3376,23 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3302,16 +3439,19 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3325,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -3337,7 +3477,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -3358,16 +3498,19 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,7 +3536,7 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3414,24 +3557,27 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>6900</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3454,8 +3600,8 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,13 +3801,16 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -3661,7 +3819,7 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3673,13 +3831,13 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3694,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>6900</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,19 +4119,22 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-7000</v>
+        <v>-7200</v>
       </c>
       <c r="E72" s="3">
         <v>-7000</v>
       </c>
       <c r="F72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="G72" s="3">
         <v>-6000</v>
@@ -3972,13 +4146,13 @@
         <v>-6000</v>
       </c>
       <c r="J72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-5900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-5900</v>
       </c>
       <c r="M72" s="3">
         <v>-5900</v>
@@ -3993,19 +4167,22 @@
         <v>-5900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,19 +4355,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>1000</v>
@@ -4196,7 +4382,7 @@
         <v>1000</v>
       </c>
       <c r="J76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K76" s="3">
         <v>1100</v>
@@ -4217,19 +4403,22 @@
         <v>1100</v>
       </c>
       <c r="Q76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,95 +4473,101 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1000</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -4387,22 +4582,25 @@
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4973,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,7 +4985,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -4777,11 +4994,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -4792,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4804,19 +5021,22 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5059,10 +5289,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,19 +5550,22 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
@@ -5327,11 +5573,11 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -5345,8 +5591,8 @@
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,17 +5668,20 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5437,25 +5689,25 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5464,15 +5716,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>200</v>
@@ -768,40 +772,40 @@
         <v>200</v>
       </c>
       <c r="H8" s="3">
+        <v>200</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
       <c r="M8" s="3">
+        <v>200</v>
+      </c>
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
       </c>
       <c r="P8" s="3">
         <v>300</v>
       </c>
       <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -809,16 +813,19 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -842,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -856,8 +863,8 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>100</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
@@ -868,16 +875,19 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>200</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>200</v>
@@ -886,16 +896,16 @@
         <v>200</v>
       </c>
       <c r="H10" s="3">
+        <v>200</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
@@ -913,11 +923,11 @@
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -997,20 +1011,23 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>1500</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1079,14 +1099,14 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1103,8 +1123,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,25 +1232,26 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1233,40 +1260,43 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,28 +1304,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1304,28 +1334,31 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1380,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1362,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1380,25 +1414,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1406,8 +1440,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,28 +1452,28 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>-100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -1451,22 +1488,25 @@
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,8 +1531,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1500,8 +1540,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1516,45 +1556,48 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -1569,22 +1612,25 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,37 +1750,40 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1000</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -1746,51 +1798,54 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1000</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -1805,22 +1860,25 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2122,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2070,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2088,25 +2158,25 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2114,37 +2184,40 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1000</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -2159,22 +2232,25 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,37 +2308,40 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1000</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -2277,86 +2356,92 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,13 +2487,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2425,25 +2512,25 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2452,16 +2539,19 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,19 +2609,22 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2545,11 +2638,11 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2557,17 +2650,17 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2669,11 +2768,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2685,19 +2784,22 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2708,26 +2810,26 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
@@ -2744,19 +2846,22 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2919,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2931,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2847,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3043,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,22 +3167,25 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>1000</v>
@@ -3101,16 +3221,19 @@
         <v>1000</v>
       </c>
       <c r="S52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,22 +3291,25 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
         <v>200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1200</v>
       </c>
       <c r="H54" s="3">
         <v>1200</v>
@@ -3195,10 +3321,10 @@
         <v>1200</v>
       </c>
       <c r="K54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L54" s="3">
         <v>1300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1100</v>
       </c>
       <c r="M54" s="3">
         <v>1100</v>
@@ -3216,19 +3342,22 @@
         <v>1100</v>
       </c>
       <c r="R54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S54" s="3">
         <v>1200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3350,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3359,10 +3493,10 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3379,20 +3513,23 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3442,16 +3579,19 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3468,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -3480,7 +3620,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -3501,24 +3641,27 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3539,7 +3682,7 @@
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3560,27 +3703,30 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>6900</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3603,8 +3749,8 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,8 +3959,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3813,7 +3971,7 @@
         <v>400</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -3822,7 +3980,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3834,13 +3992,13 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -3855,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>6900</v>
@@ -3863,8 +4021,11 @@
       <c r="U66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,22 +4293,25 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-7000</v>
       </c>
       <c r="F72" s="3">
         <v>-7000</v>
       </c>
       <c r="G72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="H72" s="3">
         <v>-6000</v>
@@ -4149,13 +4323,13 @@
         <v>-6000</v>
       </c>
       <c r="K72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-5900</v>
       </c>
       <c r="N72" s="3">
         <v>-5900</v>
@@ -4170,19 +4344,22 @@
         <v>-5900</v>
       </c>
       <c r="R72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="S72" s="3">
         <v>-5800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,22 +4541,25 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
       <c r="F76" s="3">
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>1000</v>
@@ -4385,7 +4571,7 @@
         <v>1000</v>
       </c>
       <c r="K76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L76" s="3">
         <v>1100</v>
@@ -4406,19 +4592,22 @@
         <v>1100</v>
       </c>
       <c r="R76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-4800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,101 +4665,107 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1000</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
@@ -4585,22 +4780,25 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4820,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,8 +5190,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4988,7 +5205,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4997,11 +5214,11 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -5012,10 +5229,10 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5024,19 +5241,22 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5278,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5338,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5462,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5292,10 +5522,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,22 +5796,25 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -5576,11 +5822,11 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -5594,8 +5840,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5612,8 +5858,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,20 +5920,23 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5692,25 +5944,25 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5719,15 +5971,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -766,31 +773,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>200</v>
       </c>
       <c r="I8" s="3">
+        <v>200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>200</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>200</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
@@ -799,25 +806,31 @@
         <v>300</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,11 +840,11 @@
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -852,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -861,16 +874,16 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -878,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,29 +908,29 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>200</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
+        <v>200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
         <v>200</v>
@@ -926,22 +945,28 @@
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>400</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,20 +1041,26 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,31 +1121,37 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1126,11 +1165,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1150,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1242,61 +1295,67 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
-        <v>100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
-      </c>
       <c r="J17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>200</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
+        <v>200</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1304,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1399,17 +1466,17 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1417,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1426,25 +1493,31 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
+      <c r="S20" s="3">
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,34 +1525,34 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
@@ -1491,22 +1564,28 @@
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,20 +1613,20 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1559,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1567,8 +1646,14 @@
       <c r="V22" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,34 +1661,34 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1615,22 +1700,28 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1762,34 +1865,34 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -1801,22 +1904,28 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1824,34 +1933,34 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -1863,22 +1972,28 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2143,16 +2282,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2161,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2170,25 +2309,31 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2196,34 +2341,34 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2235,22 +2380,28 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2320,34 +2477,34 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2359,89 +2516,101 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,19 +2659,21 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2515,43 +2688,49 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>100</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,14 +2808,14 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2641,32 +2826,32 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>100</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2771,14 +2968,14 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2787,19 +2984,25 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>1000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2807,13 +3010,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -2828,14 +3031,14 @@
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>200</v>
+      </c>
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
       <c r="O46" s="3">
         <v>100</v>
       </c>
@@ -2849,19 +3052,25 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
+        <v>100</v>
+      </c>
+      <c r="T46" s="3">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2934,10 +3149,10 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -2958,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2984,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,28 +3403,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>1000</v>
@@ -3224,16 +3463,22 @@
         <v>1000</v>
       </c>
       <c r="T52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3303,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3312,10 +3563,10 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>1200</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>1200</v>
@@ -3324,13 +3575,13 @@
         <v>1200</v>
       </c>
       <c r="L54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N54" s="3">
         <v>1300</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1100</v>
       </c>
       <c r="O54" s="3">
         <v>1100</v>
@@ -3345,19 +3596,25 @@
         <v>1100</v>
       </c>
       <c r="S54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U54" s="3">
         <v>1200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3487,22 +3754,22 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -3516,20 +3783,26 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>6900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3582,16 +3855,22 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3611,10 +3890,10 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -3623,10 +3902,10 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -3644,31 +3923,37 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>100</v>
+      </c>
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>500</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
       <c r="H61" s="3">
         <v>100</v>
       </c>
@@ -3685,10 +3970,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3706,16 +3991,22 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>6900</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3725,14 +4016,14 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -3752,11 +4043,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,31 +4271,37 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>200</v>
@@ -3995,16 +4310,16 @@
         <v>200</v>
       </c>
       <c r="M66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -4016,16 +4331,22 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="X66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,28 +4637,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6000</v>
       </c>
       <c r="J72" s="3">
         <v>-6000</v>
@@ -4326,7 +4673,7 @@
         <v>-6000</v>
       </c>
       <c r="L72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="M72" s="3">
         <v>-6000</v>
@@ -4335,7 +4682,7 @@
         <v>-5900</v>
       </c>
       <c r="O72" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="P72" s="3">
         <v>-5900</v>
@@ -4347,19 +4694,25 @@
         <v>-5900</v>
       </c>
       <c r="S72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="T72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="U72" s="3">
         <v>-5800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-2200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,28 +4909,34 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>1000</v>
@@ -4574,10 +4945,10 @@
         <v>1000</v>
       </c>
       <c r="L76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="N76" s="3">
         <v>1100</v>
@@ -4595,19 +4966,25 @@
         <v>1100</v>
       </c>
       <c r="S76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4744,34 +5133,34 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -4783,22 +5172,28 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5208,23 +5641,23 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -5232,31 +5665,37 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5525,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,40 +6284,46 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
@@ -5843,11 +6334,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -5861,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
@@ -788,40 +792,40 @@
         <v>200</v>
       </c>
       <c r="K8" s="3">
+        <v>200</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
       <c r="P8" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -871,13 +878,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -885,8 +892,8 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>100</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
@@ -924,16 +934,16 @@
         <v>200</v>
       </c>
       <c r="K10" s="3">
+        <v>200</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
@@ -951,11 +961,11 @@
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1047,20 +1061,23 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3">
         <v>1500</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,19 +1144,22 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1147,14 +1167,14 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1171,8 +1191,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1312,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1301,19 +1328,19 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
@@ -1322,40 +1349,43 @@
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1369,31 +1399,31 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
         <v>100</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1402,28 +1432,31 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1472,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1490,25 +1524,25 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1531,31 +1568,31 @@
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>-100</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
         <v>0</v>
@@ -1570,22 +1607,25 @@
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1619,8 +1659,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1628,8 +1668,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1644,16 +1684,19 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1667,31 +1710,31 @@
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1706,22 +1749,25 @@
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1905,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1871,31 +1923,31 @@
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -1910,22 +1962,25 @@
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,31 +1994,31 @@
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -1978,22 +2033,25 @@
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2288,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2306,25 +2376,25 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,8 +2402,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2347,31 +2420,31 @@
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2386,22 +2459,25 @@
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2544,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2483,31 +2562,31 @@
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2522,95 +2601,101 @@
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2747,23 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2694,25 +2781,25 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
@@ -2721,16 +2808,19 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2814,11 +2907,11 @@
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2832,11 +2925,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3">
+        <v>100</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2844,17 +2937,17 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2974,11 +3073,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2990,30 +3089,33 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3022,26 +3124,26 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
       <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
         <v>100</v>
       </c>
@@ -3058,19 +3160,22 @@
         <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,13 +3242,16 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -3155,7 +3263,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3179,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,31 +3526,34 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>1000</v>
@@ -3469,16 +3589,19 @@
         <v>1000</v>
       </c>
       <c r="V52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W52" s="3">
         <v>1300</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3668,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3560,16 +3686,16 @@
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1200</v>
       </c>
       <c r="K54" s="3">
         <v>1200</v>
@@ -3581,10 +3707,10 @@
         <v>1200</v>
       </c>
       <c r="N54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O54" s="3">
         <v>1300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1100</v>
       </c>
       <c r="P54" s="3">
         <v>1100</v>
@@ -3602,19 +3728,22 @@
         <v>1100</v>
       </c>
       <c r="U54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V54" s="3">
         <v>1200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,13 +3864,16 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3760,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3769,10 +3903,10 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
@@ -3789,20 +3923,23 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3861,21 +3998,24 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3896,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3908,7 +4048,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3929,34 +4069,37 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
         <v>100</v>
       </c>
@@ -3976,7 +4119,7 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3997,16 +4140,19 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>6900</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4022,11 +4168,11 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4049,8 +4195,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,25 +4432,28 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
       </c>
       <c r="G66" s="3">
         <v>400</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -4304,7 +4462,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>200</v>
@@ -4316,13 +4474,13 @@
         <v>200</v>
       </c>
       <c r="O66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -4337,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
         <v>6900</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,31 +4814,34 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-7000</v>
       </c>
       <c r="I72" s="3">
         <v>-7000</v>
       </c>
       <c r="J72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="K72" s="3">
         <v>-6000</v>
@@ -4679,13 +4853,13 @@
         <v>-6000</v>
       </c>
       <c r="N72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-5900</v>
       </c>
       <c r="Q72" s="3">
         <v>-5900</v>
@@ -4700,19 +4874,22 @@
         <v>-5900</v>
       </c>
       <c r="U72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-5800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-4900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,31 +5098,34 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>1000</v>
@@ -4951,7 +5137,7 @@
         <v>1000</v>
       </c>
       <c r="N76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O76" s="3">
         <v>1100</v>
@@ -4972,19 +5158,22 @@
         <v>1100</v>
       </c>
       <c r="U76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-4800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-2100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5240,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5139,31 +5334,31 @@
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -5178,22 +5373,25 @@
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5840,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5647,7 +5864,7 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -5656,10 +5873,10 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -5671,10 +5888,10 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5683,19 +5900,22 @@
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6151,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5990,10 +6220,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6302,19 +6548,19 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
@@ -6322,11 +6568,11 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
@@ -6340,8 +6586,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6438,16 +6690,16 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -6456,25 +6708,25 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6483,15 +6735,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FUST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>FUST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -786,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
@@ -795,40 +799,40 @@
         <v>200</v>
       </c>
       <c r="L8" s="3">
+        <v>200</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
       <c r="Q8" s="3">
+        <v>200</v>
+      </c>
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,8 +863,8 @@
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
@@ -881,13 +888,13 @@
         <v>0</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -895,8 +902,8 @@
       <c r="U9" s="3">
         <v>100</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="V9" s="3">
+        <v>100</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,8 @@
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="3">
-        <v>200</v>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J10" s="3">
         <v>200</v>
@@ -937,16 +947,16 @@
         <v>200</v>
       </c>
       <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
@@ -964,11 +974,11 @@
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1064,20 +1078,23 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
         <v>1500</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,11 +1178,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1170,14 +1190,14 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1194,8 +1214,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1331,19 +1358,19 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1352,40 +1379,43 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
       </c>
       <c r="T17" s="3">
+        <v>200</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1402,31 +1432,31 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
         <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1435,28 +1465,31 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1509,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>-100</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1527,25 +1561,25 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1571,31 +1608,31 @@
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>-100</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1610,22 +1647,25 @@
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-2600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1662,8 +1702,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
@@ -1671,8 +1711,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1687,16 +1727,19 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1713,31 +1756,31 @@
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1752,22 +1795,25 @@
         <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1926,31 +1978,31 @@
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1965,22 +2017,25 @@
         <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1997,31 +2052,31 @@
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -2036,22 +2091,25 @@
         <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2361,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>100</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2379,25 +2449,25 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2405,8 +2475,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2423,31 +2496,31 @@
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1000</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2462,22 +2535,25 @@
         <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2565,31 +2644,31 @@
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1000</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2604,98 +2683,104 @@
         <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,8 +2834,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,16 +2844,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2784,25 +2871,25 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2811,16 +2898,19 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2910,11 +3003,11 @@
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2928,11 +3021,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2940,17 +3033,17 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3076,11 +3175,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3092,19 +3191,22 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3127,26 +3229,26 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
@@ -3163,19 +3265,22 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
+        <v>100</v>
+      </c>
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -3266,7 +3374,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3290,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,13 +3646,16 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3543,11 +3663,11 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3556,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>1000</v>
@@ -3592,16 +3712,19 @@
         <v>1000</v>
       </c>
       <c r="W52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,8 +3794,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3689,16 +3815,16 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1200</v>
       </c>
       <c r="L54" s="3">
         <v>1200</v>
@@ -3710,10 +3836,10 @@
         <v>1200</v>
       </c>
       <c r="O54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P54" s="3">
         <v>1300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1100</v>
       </c>
       <c r="Q54" s="3">
         <v>1100</v>
@@ -3731,19 +3857,22 @@
         <v>1100</v>
       </c>
       <c r="V54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W54" s="3">
         <v>1200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,17 +3998,20 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -3897,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3906,10 +4040,10 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3926,20 +4060,23 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4001,25 +4138,28 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
-        <v>0</v>
-      </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
@@ -4039,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -4051,7 +4191,7 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4072,37 +4212,40 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X60" s="3">
-        <v>6900</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>600</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
-        <v>100</v>
-      </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
@@ -4122,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4143,16 +4286,19 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>6900</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4171,11 +4317,11 @@
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4198,8 +4344,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,28 +4590,31 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>900</v>
+      </c>
+      <c r="E66" s="3">
         <v>800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>400</v>
       </c>
       <c r="H66" s="3">
         <v>400</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -4465,7 +4623,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
@@ -4477,13 +4635,13 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -4498,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
-        <v>6900</v>
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>6900</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>6900</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,34 +4988,37 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-7000</v>
       </c>
       <c r="J72" s="3">
         <v>-7000</v>
       </c>
       <c r="K72" s="3">
-        <v>-6000</v>
+        <v>-7000</v>
       </c>
       <c r="L72" s="3">
         <v>-6000</v>
@@ -4856,13 +5030,13 @@
         <v>-6000</v>
       </c>
       <c r="O72" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-5900</v>
       </c>
       <c r="R72" s="3">
         <v>-5900</v>
@@ -4877,19 +5051,22 @@
         <v>-5900</v>
       </c>
       <c r="V72" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="W72" s="3">
         <v>-5800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1900</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,34 +5284,37 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>1000</v>
@@ -5140,7 +5326,7 @@
         <v>1000</v>
       </c>
       <c r="O76" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P76" s="3">
         <v>1100</v>
@@ -5161,19 +5347,22 @@
         <v>1100</v>
       </c>
       <c r="V76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-4800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5337,31 +5532,31 @@
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1000</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -5376,22 +5571,25 @@
         <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5867,7 +6084,7 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -5876,10 +6093,10 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -5891,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5903,19 +6120,22 @@
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6223,10 +6453,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>3900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6779,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6551,19 +6797,19 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
@@ -6571,11 +6817,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
@@ -6589,8 +6835,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6693,16 +6945,16 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6711,25 +6963,25 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -6738,15 +6990,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3700</v>
       </c>
     </row>
